--- a/lab3/table.xlsx
+++ b/lab3/table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>Регион</t>
   </si>
@@ -21,6 +21,27 @@
   </si>
   <si>
     <t>Год</t>
+  </si>
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>AMERICA - NORTHERN</t>
+  </si>
+  <si>
+    <t>ASIA - MIDDLE EAST AND SOUTH</t>
+  </si>
+  <si>
+    <t>ASIA - FAR EAST</t>
+  </si>
+  <si>
+    <t>AMERICA - LATIN</t>
+  </si>
+  <si>
+    <t>EUROPE - CENTRAL AND EASTERN</t>
+  </si>
+  <si>
+    <t>EUROPE - WESTERN</t>
   </si>
 </sst>
 </file>
@@ -65,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +103,853 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11208.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11153.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11158.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11180.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10859.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10483.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10180.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11289.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11142.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1635.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1656.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1687.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1277.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1659.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4261.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4382.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4947.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5521.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5394.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5934.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6008.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5027.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3551.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4012.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3915.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4052.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4030.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4006.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4153.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3407.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3954.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4087.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9359.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9179.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8834.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8339.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7331.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7547.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6714.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="n">
+        <v>9256.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="n">
+        <v>9417.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lab3/table.xlsx
+++ b/lab3/table.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="36">
   <si>
-    <t>Регион</t>
+    <t>Страна</t>
   </si>
   <si>
     <t>Объем ежегодной загрузки, т</t>
@@ -23,25 +23,103 @@
     <t>Год</t>
   </si>
   <si>
-    <t>AFRICA</t>
+    <t>United States of America</t>
   </si>
   <si>
-    <t>AMERICA - NORTHERN</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>ASIA - MIDDLE EAST AND SOUTH</t>
+    <t>Armenia</t>
   </si>
   <si>
-    <t>ASIA - FAR EAST</t>
+    <t>Sweden</t>
   </si>
   <si>
-    <t>AMERICA - LATIN</t>
+    <t>Pakistan</t>
   </si>
   <si>
-    <t>EUROPE - CENTRAL AND EASTERN</t>
+    <t>China</t>
   </si>
   <si>
-    <t>EUROPE - WESTERN</t>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Netherlands, Kingdom of The</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -86,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,7 +186,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>123.0</v>
+        <v>6674.0</v>
       </c>
       <c r="C2" t="n">
         <v>2016.0</v>
@@ -119,7 +197,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>122.0</v>
+        <v>6616.0</v>
       </c>
       <c r="C3" t="n">
         <v>2017.0</v>
@@ -130,7 +208,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>86.0</v>
+        <v>6654.0</v>
       </c>
       <c r="C4" t="n">
         <v>2018.0</v>
@@ -141,7 +219,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110.0</v>
+        <v>6662.0</v>
       </c>
       <c r="C5" t="n">
         <v>2019.0</v>
@@ -152,7 +230,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>94.0</v>
+        <v>6506.0</v>
       </c>
       <c r="C6" t="n">
         <v>2020.0</v>
@@ -163,7 +241,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>99.0</v>
+        <v>6362.0</v>
       </c>
       <c r="C7" t="n">
         <v>2021.0</v>
@@ -174,7 +252,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>83.0</v>
+        <v>6290.0</v>
       </c>
       <c r="C8" t="n">
         <v>2022.0</v>
@@ -207,7 +285,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>120.0</v>
+        <v>6598.0</v>
       </c>
       <c r="C11" t="n">
         <v>2014.0</v>
@@ -218,7 +296,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>89.0</v>
+        <v>6576.0</v>
       </c>
       <c r="C12" t="n">
         <v>2015.0</v>
@@ -229,7 +307,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>11208.0</v>
+        <v>2125.0</v>
       </c>
       <c r="C13" t="n">
         <v>2016.0</v>
@@ -240,7 +318,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>11153.0</v>
+        <v>2170.0</v>
       </c>
       <c r="C14" t="n">
         <v>2017.0</v>
@@ -251,7 +329,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>11158.0</v>
+        <v>2155.0</v>
       </c>
       <c r="C15" t="n">
         <v>2018.0</v>
@@ -262,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>11180.0</v>
+        <v>2161.0</v>
       </c>
       <c r="C16" t="n">
         <v>2019.0</v>
@@ -273,7 +351,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>10859.0</v>
+        <v>2187.0</v>
       </c>
       <c r="C17" t="n">
         <v>2020.0</v>
@@ -284,7 +362,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>10483.0</v>
+        <v>2219.0</v>
       </c>
       <c r="C18" t="n">
         <v>2021.0</v>
@@ -295,7 +373,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>10180.0</v>
+        <v>2188.0</v>
       </c>
       <c r="C19" t="n">
         <v>2022.0</v>
@@ -306,7 +384,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>446.0</v>
+        <v>1087.0</v>
       </c>
       <c r="C20" t="n">
         <v>2023.0</v>
@@ -328,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>11289.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C22" t="n">
         <v>2014.0</v>
@@ -339,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>11142.0</v>
+        <v>2199.0</v>
       </c>
       <c r="C23" t="n">
         <v>2015.0</v>
@@ -350,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>1635.0</v>
+        <v>22.0</v>
       </c>
       <c r="C24" t="n">
         <v>2016.0</v>
@@ -361,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>1656.0</v>
+        <v>24.0</v>
       </c>
       <c r="C25" t="n">
         <v>2017.0</v>
@@ -372,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>1687.0</v>
+        <v>19.0</v>
       </c>
       <c r="C26" t="n">
         <v>2018.0</v>
@@ -383,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>1820.0</v>
+        <v>20.0</v>
       </c>
       <c r="C27" t="n">
         <v>2019.0</v>
@@ -394,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>1832.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n">
         <v>2020.0</v>
@@ -405,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>1902.0</v>
+        <v>16.0</v>
       </c>
       <c r="C29" t="n">
         <v>2021.0</v>
@@ -416,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>2016.0</v>
+        <v>24.0</v>
       </c>
       <c r="C30" t="n">
         <v>2022.0</v>
@@ -427,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>1277.0</v>
+        <v>23.0</v>
       </c>
       <c r="C31" t="n">
         <v>2023.0</v>
@@ -449,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="n">
-        <v>1659.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n">
         <v>2014.0</v>
@@ -460,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="n">
-        <v>1778.0</v>
+        <v>26.0</v>
       </c>
       <c r="C34" t="n">
         <v>2015.0</v>
@@ -471,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>4261.0</v>
+        <v>456.0</v>
       </c>
       <c r="C35" t="n">
         <v>2016.0</v>
@@ -482,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>4382.0</v>
+        <v>493.0</v>
       </c>
       <c r="C36" t="n">
         <v>2017.0</v>
@@ -493,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>4947.0</v>
+        <v>501.0</v>
       </c>
       <c r="C37" t="n">
         <v>2018.0</v>
@@ -504,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>5521.0</v>
+        <v>489.0</v>
       </c>
       <c r="C38" t="n">
         <v>2019.0</v>
@@ -515,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>5394.0</v>
+        <v>354.0</v>
       </c>
       <c r="C39" t="n">
         <v>2020.0</v>
@@ -526,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="n">
-        <v>5934.0</v>
+        <v>386.0</v>
       </c>
       <c r="C40" t="n">
         <v>2021.0</v>
@@ -537,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>6008.0</v>
+        <v>374.0</v>
       </c>
       <c r="C41" t="n">
         <v>2022.0</v>
@@ -548,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="n">
-        <v>5027.0</v>
+        <v>178.0</v>
       </c>
       <c r="C42" t="n">
         <v>2023.0</v>
@@ -570,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>3551.0</v>
+        <v>485.0</v>
       </c>
       <c r="C44" t="n">
         <v>2014.0</v>
@@ -581,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>4012.0</v>
+        <v>412.0</v>
       </c>
       <c r="C45" t="n">
         <v>2015.0</v>
@@ -592,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>549.0</v>
+        <v>65.0</v>
       </c>
       <c r="C46" t="n">
         <v>2016.0</v>
@@ -603,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>467.0</v>
+        <v>91.0</v>
       </c>
       <c r="C47" t="n">
         <v>2017.0</v>
@@ -614,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>519.0</v>
+        <v>94.0</v>
       </c>
       <c r="C48" t="n">
         <v>2018.0</v>
@@ -625,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>586.0</v>
+        <v>82.0</v>
       </c>
       <c r="C49" t="n">
         <v>2019.0</v>
@@ -636,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>667.0</v>
+        <v>97.0</v>
       </c>
       <c r="C50" t="n">
         <v>2020.0</v>
@@ -647,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>682.0</v>
+        <v>168.0</v>
       </c>
       <c r="C51" t="n">
         <v>2021.0</v>
@@ -658,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>551.0</v>
+        <v>203.0</v>
       </c>
       <c r="C52" t="n">
         <v>2022.0</v>
@@ -669,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
         <v>2023.0</v>
@@ -691,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>406.0</v>
+        <v>51.0</v>
       </c>
       <c r="C55" t="n">
         <v>2014.0</v>
@@ -702,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>332.0</v>
+        <v>54.0</v>
       </c>
       <c r="C56" t="n">
         <v>2015.0</v>
@@ -713,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>3915.0</v>
+        <v>2115.0</v>
       </c>
       <c r="C57" t="n">
         <v>2016.0</v>
@@ -724,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="n">
-        <v>4052.0</v>
+        <v>2281.0</v>
       </c>
       <c r="C58" t="n">
         <v>2017.0</v>
@@ -735,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>4024.0</v>
+        <v>2825.0</v>
       </c>
       <c r="C59" t="n">
         <v>2018.0</v>
@@ -746,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="n">
-        <v>4030.0</v>
+        <v>3098.0</v>
       </c>
       <c r="C60" t="n">
         <v>2019.0</v>
@@ -757,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>4006.0</v>
+        <v>3157.0</v>
       </c>
       <c r="C61" t="n">
         <v>2020.0</v>
@@ -768,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="n">
-        <v>4153.0</v>
+        <v>3461.0</v>
       </c>
       <c r="C62" t="n">
         <v>2021.0</v>
@@ -779,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>3407.0</v>
+        <v>3518.0</v>
       </c>
       <c r="C63" t="n">
         <v>2022.0</v>
@@ -790,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>2036.0</v>
+        <v>3020.0</v>
       </c>
       <c r="C64" t="n">
         <v>2023.0</v>
@@ -812,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>3954.0</v>
+        <v>1521.0</v>
       </c>
       <c r="C66" t="n">
         <v>2014.0</v>
@@ -823,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>4087.0</v>
+        <v>1763.0</v>
       </c>
       <c r="C67" t="n">
         <v>2015.0</v>
@@ -834,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="n">
-        <v>9359.0</v>
+        <v>1757.0</v>
       </c>
       <c r="C68" t="n">
         <v>2016.0</v>
@@ -845,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>9179.0</v>
+        <v>1677.0</v>
       </c>
       <c r="C69" t="n">
         <v>2017.0</v>
@@ -856,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>8834.0</v>
+        <v>1497.0</v>
       </c>
       <c r="C70" t="n">
         <v>2018.0</v>
@@ -867,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>8339.0</v>
+        <v>1626.0</v>
       </c>
       <c r="C71" t="n">
         <v>2019.0</v>
@@ -878,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>7331.0</v>
+        <v>1642.0</v>
       </c>
       <c r="C72" t="n">
         <v>2020.0</v>
@@ -889,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="n">
-        <v>7547.0</v>
+        <v>1746.0</v>
       </c>
       <c r="C73" t="n">
         <v>2021.0</v>
@@ -900,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>6714.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C74" t="n">
         <v>2022.0</v>
@@ -911,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>893.0</v>
+        <v>1458.0</v>
       </c>
       <c r="C75" t="n">
         <v>2023.0</v>
@@ -933,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>9256.0</v>
+        <v>1711.0</v>
       </c>
       <c r="C77" t="n">
         <v>2014.0</v>
@@ -944,9 +1022,3155 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>9417.0</v>
+        <v>1938.0</v>
       </c>
       <c r="C78" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3117.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3096.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3209.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3104.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2827.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2938.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2294.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3384.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3394.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="n">
+        <v>481.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" t="n">
+        <v>714.0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4038.0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3925.0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3543.0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3024.0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2599.0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2556.0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2619.0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3575.0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3903.0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B239" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>24</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>25</v>
+      </c>
+      <c r="B245" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>25</v>
+      </c>
+      <c r="B248" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>25</v>
+      </c>
+      <c r="B249" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>25</v>
+      </c>
+      <c r="B250" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>25</v>
+      </c>
+      <c r="B251" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>25</v>
+      </c>
+      <c r="B254" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>26</v>
+      </c>
+      <c r="B262" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>27</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1508.0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1536.0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>27</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1686.0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1624.0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1223.0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>28</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4534.0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4537.0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>28</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4518.0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>28</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4353.0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>28</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4121.0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>28</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3890.0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>28</v>
+      </c>
+      <c r="B284" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4691.0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4566.0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>31</v>
+      </c>
+      <c r="B310" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>31</v>
+      </c>
+      <c r="B311" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>31</v>
+      </c>
+      <c r="B312" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>31</v>
+      </c>
+      <c r="B313" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>31</v>
+      </c>
+      <c r="B314" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>31</v>
+      </c>
+      <c r="B315" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>31</v>
+      </c>
+      <c r="B316" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>31</v>
+      </c>
+      <c r="B317" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>31</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>31</v>
+      </c>
+      <c r="B319" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>31</v>
+      </c>
+      <c r="B320" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>32</v>
+      </c>
+      <c r="B321" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>32</v>
+      </c>
+      <c r="B326" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>32</v>
+      </c>
+      <c r="B327" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>33</v>
+      </c>
+      <c r="B332" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>33</v>
+      </c>
+      <c r="B333" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>33</v>
+      </c>
+      <c r="B334" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>33</v>
+      </c>
+      <c r="B335" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>33</v>
+      </c>
+      <c r="B336" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>33</v>
+      </c>
+      <c r="B337" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>33</v>
+      </c>
+      <c r="B338" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>33</v>
+      </c>
+      <c r="B339" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>33</v>
+      </c>
+      <c r="B341" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>34</v>
+      </c>
+      <c r="B343" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>34</v>
+      </c>
+      <c r="B344" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>34</v>
+      </c>
+      <c r="B345" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>34</v>
+      </c>
+      <c r="B346" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+      <c r="B347" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>34</v>
+      </c>
+      <c r="B348" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>34</v>
+      </c>
+      <c r="B349" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>34</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>34</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>34</v>
+      </c>
+      <c r="B352" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>34</v>
+      </c>
+      <c r="B353" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>35</v>
+      </c>
+      <c r="B354" t="n">
+        <v>614.0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>35</v>
+      </c>
+      <c r="B355" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>35</v>
+      </c>
+      <c r="B356" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>35</v>
+      </c>
+      <c r="B357" t="n">
+        <v>547.0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>35</v>
+      </c>
+      <c r="B358" t="n">
+        <v>469.0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>35</v>
+      </c>
+      <c r="B359" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>35</v>
+      </c>
+      <c r="B360" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2022.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>35</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2024.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>35</v>
+      </c>
+      <c r="B363" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>35</v>
+      </c>
+      <c r="B364" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="C364" t="n">
         <v>2015.0</v>
       </c>
     </row>

--- a/lab3/table.xlsx
+++ b/lab3/table.xlsx
@@ -186,7 +186,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6674.0</v>
+        <v>6812.0</v>
       </c>
       <c r="C2" t="n">
         <v>2016.0</v>
@@ -197,7 +197,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6616.0</v>
+        <v>6754.0</v>
       </c>
       <c r="C3" t="n">
         <v>2017.0</v>
@@ -208,7 +208,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6654.0</v>
+        <v>6792.0</v>
       </c>
       <c r="C4" t="n">
         <v>2018.0</v>
@@ -219,7 +219,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6662.0</v>
+        <v>6799.0</v>
       </c>
       <c r="C5" t="n">
         <v>2019.0</v>
@@ -230,7 +230,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6506.0</v>
+        <v>6643.0</v>
       </c>
       <c r="C6" t="n">
         <v>2020.0</v>
@@ -241,7 +241,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6362.0</v>
+        <v>6500.0</v>
       </c>
       <c r="C7" t="n">
         <v>2021.0</v>
@@ -252,7 +252,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6290.0</v>
+        <v>6427.0</v>
       </c>
       <c r="C8" t="n">
         <v>2022.0</v>
@@ -263,7 +263,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>5901.0</v>
       </c>
       <c r="C9" t="n">
         <v>2023.0</v>
@@ -274,7 +274,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>5901.0</v>
       </c>
       <c r="C10" t="n">
         <v>2024.0</v>
@@ -285,7 +285,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6598.0</v>
+        <v>6805.0</v>
       </c>
       <c r="C11" t="n">
         <v>2014.0</v>
@@ -296,7 +296,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>6576.0</v>
+        <v>6783.0</v>
       </c>
       <c r="C12" t="n">
         <v>2015.0</v>
@@ -307,7 +307,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2125.0</v>
+        <v>2399.0</v>
       </c>
       <c r="C13" t="n">
         <v>2016.0</v>
@@ -318,7 +318,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>2170.0</v>
+        <v>2444.0</v>
       </c>
       <c r="C14" t="n">
         <v>2017.0</v>
@@ -329,7 +329,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2155.0</v>
+        <v>2297.0</v>
       </c>
       <c r="C15" t="n">
         <v>2018.0</v>
@@ -340,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>2161.0</v>
+        <v>2231.0</v>
       </c>
       <c r="C16" t="n">
         <v>2019.0</v>
@@ -384,7 +384,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>1087.0</v>
+        <v>2193.0</v>
       </c>
       <c r="C20" t="n">
         <v>2023.0</v>
@@ -395,7 +395,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>2172.0</v>
       </c>
       <c r="C21" t="n">
         <v>2024.0</v>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>2023.0</v>
+        <v>2378.0</v>
       </c>
       <c r="C22" t="n">
         <v>2014.0</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2199.0</v>
+        <v>2541.0</v>
       </c>
       <c r="C23" t="n">
         <v>2015.0</v>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="C32" t="n">
         <v>2024.0</v>
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="n">
-        <v>178.0</v>
+        <v>382.0</v>
       </c>
       <c r="C42" t="n">
         <v>2023.0</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>386.0</v>
       </c>
       <c r="C43" t="n">
         <v>2024.0</v>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>65.0</v>
+        <v>209.0</v>
       </c>
       <c r="C46" t="n">
         <v>2016.0</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>91.0</v>
+        <v>215.0</v>
       </c>
       <c r="C47" t="n">
         <v>2017.0</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>94.0</v>
+        <v>218.0</v>
       </c>
       <c r="C48" t="n">
         <v>2018.0</v>
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>82.0</v>
+        <v>206.0</v>
       </c>
       <c r="C49" t="n">
         <v>2019.0</v>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>97.0</v>
+        <v>221.0</v>
       </c>
       <c r="C50" t="n">
         <v>2020.0</v>
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>168.0</v>
+        <v>230.0</v>
       </c>
       <c r="C51" t="n">
         <v>2021.0</v>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0</v>
+        <v>205.0</v>
       </c>
       <c r="C53" t="n">
         <v>2023.0</v>
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0</v>
+        <v>205.0</v>
       </c>
       <c r="C54" t="n">
         <v>2024.0</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>51.0</v>
+        <v>215.0</v>
       </c>
       <c r="C55" t="n">
         <v>2014.0</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>54.0</v>
+        <v>219.0</v>
       </c>
       <c r="C56" t="n">
         <v>2015.0</v>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>2115.0</v>
+        <v>3420.0</v>
       </c>
       <c r="C57" t="n">
         <v>2016.0</v>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="n">
-        <v>2281.0</v>
+        <v>3407.0</v>
       </c>
       <c r="C58" t="n">
         <v>2017.0</v>
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>2825.0</v>
+        <v>3462.0</v>
       </c>
       <c r="C59" t="n">
         <v>2018.0</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="n">
-        <v>3098.0</v>
+        <v>3584.0</v>
       </c>
       <c r="C60" t="n">
         <v>2019.0</v>
@@ -835,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>3157.0</v>
+        <v>3522.0</v>
       </c>
       <c r="C61" t="n">
         <v>2020.0</v>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="n">
-        <v>3461.0</v>
+        <v>3709.0</v>
       </c>
       <c r="C62" t="n">
         <v>2021.0</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>3518.0</v>
+        <v>3645.0</v>
       </c>
       <c r="C63" t="n">
         <v>2022.0</v>
@@ -868,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>3020.0</v>
+        <v>3639.0</v>
       </c>
       <c r="C64" t="n">
         <v>2023.0</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0</v>
+        <v>3529.0</v>
       </c>
       <c r="C65" t="n">
         <v>2024.0</v>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>1521.0</v>
+        <v>3550.0</v>
       </c>
       <c r="C66" t="n">
         <v>2014.0</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>1763.0</v>
+        <v>3342.0</v>
       </c>
       <c r="C67" t="n">
         <v>2015.0</v>
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="n">
-        <v>1757.0</v>
+        <v>1999.0</v>
       </c>
       <c r="C68" t="n">
         <v>2016.0</v>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>1677.0</v>
+        <v>1919.0</v>
       </c>
       <c r="C69" t="n">
         <v>2017.0</v>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>1497.0</v>
+        <v>1739.0</v>
       </c>
       <c r="C70" t="n">
         <v>2018.0</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>1626.0</v>
+        <v>1787.0</v>
       </c>
       <c r="C71" t="n">
         <v>2019.0</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>1642.0</v>
+        <v>1803.0</v>
       </c>
       <c r="C72" t="n">
         <v>2020.0</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="n">
-        <v>1746.0</v>
+        <v>1907.0</v>
       </c>
       <c r="C73" t="n">
         <v>2021.0</v>
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>1869.0</v>
+        <v>1950.0</v>
       </c>
       <c r="C74" t="n">
         <v>2022.0</v>
@@ -989,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>1458.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C75" t="n">
         <v>2023.0</v>
@@ -1000,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0</v>
+        <v>2046.0</v>
       </c>
       <c r="C76" t="n">
         <v>2024.0</v>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>1711.0</v>
+        <v>2090.0</v>
       </c>
       <c r="C77" t="n">
         <v>2014.0</v>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>1938.0</v>
+        <v>2261.0</v>
       </c>
       <c r="C78" t="n">
         <v>2015.0</v>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="C86" t="n">
         <v>2023.0</v>
@@ -1121,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="C87" t="n">
         <v>2024.0</v>
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="C97" t="n">
         <v>2023.0</v>
@@ -1242,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="C98" t="n">
         <v>2024.0</v>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="C109" t="n">
         <v>2024.0</v>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>121.0</v>
+        <v>149.0</v>
       </c>
       <c r="C112" t="n">
         <v>2016.0</v>
@@ -1407,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="n">
-        <v>124.0</v>
+        <v>151.0</v>
       </c>
       <c r="C113" t="n">
         <v>2017.0</v>
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="n">
-        <v>122.0</v>
+        <v>149.0</v>
       </c>
       <c r="C114" t="n">
         <v>2018.0</v>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="n">
-        <v>126.0</v>
+        <v>154.0</v>
       </c>
       <c r="C115" t="n">
         <v>2019.0</v>
@@ -1440,7 +1440,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="n">
-        <v>126.0</v>
+        <v>154.0</v>
       </c>
       <c r="C116" t="n">
         <v>2020.0</v>
@@ -1451,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>126.0</v>
+        <v>154.0</v>
       </c>
       <c r="C117" t="n">
         <v>2021.0</v>
@@ -1462,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="n">
-        <v>127.0</v>
+        <v>155.0</v>
       </c>
       <c r="C118" t="n">
         <v>2022.0</v>
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="B119" t="n">
-        <v>129.0</v>
+        <v>157.0</v>
       </c>
       <c r="C119" t="n">
         <v>2023.0</v>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0</v>
+        <v>147.0</v>
       </c>
       <c r="C120" t="n">
         <v>2024.0</v>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="B121" t="n">
-        <v>127.0</v>
+        <v>155.0</v>
       </c>
       <c r="C121" t="n">
         <v>2014.0</v>
@@ -1506,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B122" t="n">
-        <v>124.0</v>
+        <v>152.0</v>
       </c>
       <c r="C122" t="n">
         <v>2015.0</v>
@@ -1594,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0</v>
+        <v>3694.0</v>
       </c>
       <c r="C130" t="n">
         <v>2023.0</v>
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0</v>
+        <v>3694.0</v>
       </c>
       <c r="C131" t="n">
         <v>2024.0</v>
@@ -1726,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0</v>
+        <v>126.0</v>
       </c>
       <c r="C142" t="n">
         <v>2024.0</v>
@@ -1847,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="C153" t="n">
         <v>2024.0</v>
@@ -1957,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0</v>
+        <v>574.0</v>
       </c>
       <c r="C163" t="n">
         <v>2023.0</v>
@@ -1968,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0</v>
+        <v>574.0</v>
       </c>
       <c r="C164" t="n">
         <v>2024.0</v>
@@ -2089,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0</v>
+        <v>463.0</v>
       </c>
       <c r="C175" t="n">
         <v>2024.0</v>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="B185" t="n">
-        <v>67.0</v>
+        <v>127.0</v>
       </c>
       <c r="C185" t="n">
         <v>2023.0</v>
@@ -2210,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="C186" t="n">
         <v>2024.0</v>
@@ -2243,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="B189" t="n">
-        <v>150.0</v>
+        <v>253.0</v>
       </c>
       <c r="C189" t="n">
         <v>2016.0</v>
@@ -2254,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="B190" t="n">
-        <v>252.0</v>
+        <v>355.0</v>
       </c>
       <c r="C190" t="n">
         <v>2017.0</v>
@@ -2265,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="B191" t="n">
-        <v>416.0</v>
+        <v>514.0</v>
       </c>
       <c r="C191" t="n">
         <v>2018.0</v>
@@ -2276,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="B192" t="n">
-        <v>554.0</v>
+        <v>653.0</v>
       </c>
       <c r="C192" t="n">
         <v>2019.0</v>
@@ -2287,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="B193" t="n">
-        <v>359.0</v>
+        <v>458.0</v>
       </c>
       <c r="C193" t="n">
         <v>2020.0</v>
@@ -2298,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="B194" t="n">
-        <v>516.0</v>
+        <v>615.0</v>
       </c>
       <c r="C194" t="n">
         <v>2021.0</v>
@@ -2309,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="B195" t="n">
-        <v>439.0</v>
+        <v>1752.0</v>
       </c>
       <c r="C195" t="n">
         <v>2022.0</v>
@@ -2320,7 +2320,7 @@
         <v>20</v>
       </c>
       <c r="B196" t="n">
-        <v>422.0</v>
+        <v>1936.0</v>
       </c>
       <c r="C196" t="n">
         <v>2023.0</v>
@@ -2331,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0</v>
+        <v>1908.0</v>
       </c>
       <c r="C197" t="n">
         <v>2024.0</v>
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
       <c r="C198" t="n">
         <v>2014.0</v>
@@ -2353,7 +2353,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="n">
-        <v>37.0</v>
+        <v>140.0</v>
       </c>
       <c r="C199" t="n">
         <v>2015.0</v>
@@ -2430,7 +2430,7 @@
         <v>21</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0</v>
+        <v>845.0</v>
       </c>
       <c r="C206" t="n">
         <v>2022.0</v>
@@ -2441,7 +2441,7 @@
         <v>21</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0</v>
+        <v>845.0</v>
       </c>
       <c r="C207" t="n">
         <v>2023.0</v>
@@ -2452,7 +2452,7 @@
         <v>21</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0</v>
+        <v>845.0</v>
       </c>
       <c r="C208" t="n">
         <v>2024.0</v>
@@ -2551,7 +2551,7 @@
         <v>22</v>
       </c>
       <c r="B217" t="n">
-        <v>2619.0</v>
+        <v>2901.0</v>
       </c>
       <c r="C217" t="n">
         <v>2022.0</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0</v>
+        <v>2401.0</v>
       </c>
       <c r="C218" t="n">
         <v>2023.0</v>
@@ -2573,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0</v>
+        <v>2401.0</v>
       </c>
       <c r="C219" t="n">
         <v>2024.0</v>
@@ -2606,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C222" t="n">
         <v>2016.0</v>
@@ -2617,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C223" t="n">
         <v>2017.0</v>
@@ -2628,7 +2628,7 @@
         <v>23</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C224" t="n">
         <v>2018.0</v>
@@ -2639,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C225" t="n">
         <v>2019.0</v>
@@ -2650,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0</v>
+        <v>242.0</v>
       </c>
       <c r="C226" t="n">
         <v>2020.0</v>
@@ -2661,7 +2661,7 @@
         <v>23</v>
       </c>
       <c r="B227" t="n">
-        <v>81.0</v>
+        <v>242.0</v>
       </c>
       <c r="C227" t="n">
         <v>2021.0</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B228" t="n">
-        <v>66.0</v>
+        <v>147.0</v>
       </c>
       <c r="C228" t="n">
         <v>2022.0</v>
@@ -2683,7 +2683,7 @@
         <v>23</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C229" t="n">
         <v>2023.0</v>
@@ -2694,7 +2694,7 @@
         <v>23</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C230" t="n">
         <v>2024.0</v>
@@ -2705,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C231" t="n">
         <v>2014.0</v>
@@ -2716,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="C232" t="n">
         <v>2015.0</v>
@@ -2727,7 +2727,7 @@
         <v>24</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C233" t="n">
         <v>2016.0</v>
@@ -2738,7 +2738,7 @@
         <v>24</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C234" t="n">
         <v>2017.0</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C235" t="n">
         <v>2018.0</v>
@@ -2760,7 +2760,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C236" t="n">
         <v>2019.0</v>
@@ -2771,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="C237" t="n">
         <v>2020.0</v>
@@ -2782,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="B238" t="n">
-        <v>44.0</v>
+        <v>109.0</v>
       </c>
       <c r="C238" t="n">
         <v>2021.0</v>
@@ -2793,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="B239" t="n">
-        <v>35.0</v>
+        <v>99.0</v>
       </c>
       <c r="C239" t="n">
         <v>2022.0</v>
@@ -2804,7 +2804,7 @@
         <v>24</v>
       </c>
       <c r="B240" t="n">
-        <v>64.0</v>
+        <v>129.0</v>
       </c>
       <c r="C240" t="n">
         <v>2023.0</v>
@@ -2815,7 +2815,7 @@
         <v>24</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C241" t="n">
         <v>2024.0</v>
@@ -2826,7 +2826,7 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C242" t="n">
         <v>2014.0</v>
@@ -2837,7 +2837,7 @@
         <v>24</v>
       </c>
       <c r="B243" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="C243" t="n">
         <v>2015.0</v>
@@ -2925,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="B251" t="n">
-        <v>89.0</v>
+        <v>180.0</v>
       </c>
       <c r="C251" t="n">
         <v>2023.0</v>
@@ -2936,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0</v>
+        <v>174.0</v>
       </c>
       <c r="C252" t="n">
         <v>2024.0</v>
@@ -2969,7 +2969,7 @@
         <v>26</v>
       </c>
       <c r="B255" t="n">
-        <v>443.0</v>
+        <v>469.0</v>
       </c>
       <c r="C255" t="n">
         <v>2016.0</v>
@@ -2980,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="B256" t="n">
-        <v>441.0</v>
+        <v>467.0</v>
       </c>
       <c r="C256" t="n">
         <v>2017.0</v>
@@ -3046,7 +3046,7 @@
         <v>26</v>
       </c>
       <c r="B262" t="n">
-        <v>303.0</v>
+        <v>424.0</v>
       </c>
       <c r="C262" t="n">
         <v>2023.0</v>
@@ -3057,7 +3057,7 @@
         <v>26</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0</v>
+        <v>420.0</v>
       </c>
       <c r="C263" t="n">
         <v>2024.0</v>
@@ -3068,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="B264" t="n">
-        <v>434.0</v>
+        <v>460.0</v>
       </c>
       <c r="C264" t="n">
         <v>2014.0</v>
@@ -3079,7 +3079,7 @@
         <v>26</v>
       </c>
       <c r="B265" t="n">
-        <v>434.0</v>
+        <v>460.0</v>
       </c>
       <c r="C265" t="n">
         <v>2015.0</v>
@@ -3090,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="B266" t="n">
-        <v>1517.0</v>
+        <v>1977.0</v>
       </c>
       <c r="C266" t="n">
         <v>2016.0</v>
@@ -3101,7 +3101,7 @@
         <v>27</v>
       </c>
       <c r="B267" t="n">
-        <v>1508.0</v>
+        <v>1968.0</v>
       </c>
       <c r="C267" t="n">
         <v>2017.0</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B268" t="n">
-        <v>1536.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C268" t="n">
         <v>2018.0</v>
@@ -3123,7 +3123,7 @@
         <v>27</v>
       </c>
       <c r="B269" t="n">
-        <v>1686.0</v>
+        <v>2146.0</v>
       </c>
       <c r="C269" t="n">
         <v>2019.0</v>
@@ -3134,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="B270" t="n">
-        <v>1683.0</v>
+        <v>2143.0</v>
       </c>
       <c r="C270" t="n">
         <v>2020.0</v>
@@ -3145,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="B271" t="n">
-        <v>1624.0</v>
+        <v>2084.0</v>
       </c>
       <c r="C271" t="n">
         <v>2021.0</v>
@@ -3156,7 +3156,7 @@
         <v>27</v>
       </c>
       <c r="B272" t="n">
-        <v>1692.0</v>
+        <v>2044.0</v>
       </c>
       <c r="C272" t="n">
         <v>2022.0</v>
@@ -3167,7 +3167,7 @@
         <v>27</v>
       </c>
       <c r="B273" t="n">
-        <v>1223.0</v>
+        <v>2325.0</v>
       </c>
       <c r="C273" t="n">
         <v>2023.0</v>
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="B274" t="n">
-        <v>0.0</v>
+        <v>2270.0</v>
       </c>
       <c r="C274" t="n">
         <v>2024.0</v>
@@ -3189,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="B275" t="n">
-        <v>1575.0</v>
+        <v>2096.0</v>
       </c>
       <c r="C275" t="n">
         <v>2014.0</v>
@@ -3200,7 +3200,7 @@
         <v>27</v>
       </c>
       <c r="B276" t="n">
-        <v>1695.0</v>
+        <v>2216.0</v>
       </c>
       <c r="C276" t="n">
         <v>2015.0</v>
@@ -3288,7 +3288,7 @@
         <v>28</v>
       </c>
       <c r="B284" t="n">
-        <v>446.0</v>
+        <v>4654.0</v>
       </c>
       <c r="C284" t="n">
         <v>2023.0</v>
@@ -3299,7 +3299,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="n">
-        <v>0.0</v>
+        <v>4794.0</v>
       </c>
       <c r="C285" t="n">
         <v>2024.0</v>
@@ -3409,7 +3409,7 @@
         <v>29</v>
       </c>
       <c r="B295" t="n">
-        <v>0.0</v>
+        <v>243.0</v>
       </c>
       <c r="C295" t="n">
         <v>2023.0</v>
@@ -3420,7 +3420,7 @@
         <v>29</v>
       </c>
       <c r="B296" t="n">
-        <v>0.0</v>
+        <v>243.0</v>
       </c>
       <c r="C296" t="n">
         <v>2024.0</v>
@@ -3530,7 +3530,7 @@
         <v>30</v>
       </c>
       <c r="B306" t="n">
-        <v>117.0</v>
+        <v>298.0</v>
       </c>
       <c r="C306" t="n">
         <v>2023.0</v>
@@ -3541,7 +3541,7 @@
         <v>30</v>
       </c>
       <c r="B307" t="n">
-        <v>0.0</v>
+        <v>232.0</v>
       </c>
       <c r="C307" t="n">
         <v>2024.0</v>
@@ -3651,7 +3651,7 @@
         <v>31</v>
       </c>
       <c r="B317" t="n">
-        <v>126.0</v>
+        <v>181.0</v>
       </c>
       <c r="C317" t="n">
         <v>2023.0</v>
@@ -3662,7 +3662,7 @@
         <v>31</v>
       </c>
       <c r="B318" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="C318" t="n">
         <v>2024.0</v>
@@ -3695,7 +3695,7 @@
         <v>32</v>
       </c>
       <c r="B321" t="n">
-        <v>168.0</v>
+        <v>255.0</v>
       </c>
       <c r="C321" t="n">
         <v>2016.0</v>
@@ -3706,7 +3706,7 @@
         <v>32</v>
       </c>
       <c r="B322" t="n">
-        <v>163.0</v>
+        <v>250.0</v>
       </c>
       <c r="C322" t="n">
         <v>2017.0</v>
@@ -3717,7 +3717,7 @@
         <v>32</v>
       </c>
       <c r="B323" t="n">
-        <v>164.0</v>
+        <v>251.0</v>
       </c>
       <c r="C323" t="n">
         <v>2018.0</v>
@@ -3728,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="B324" t="n">
-        <v>171.0</v>
+        <v>258.0</v>
       </c>
       <c r="C324" t="n">
         <v>2019.0</v>
@@ -3739,7 +3739,7 @@
         <v>32</v>
       </c>
       <c r="B325" t="n">
-        <v>166.0</v>
+        <v>253.0</v>
       </c>
       <c r="C325" t="n">
         <v>2020.0</v>
@@ -3750,7 +3750,7 @@
         <v>32</v>
       </c>
       <c r="B326" t="n">
-        <v>169.0</v>
+        <v>256.0</v>
       </c>
       <c r="C326" t="n">
         <v>2021.0</v>
@@ -3772,7 +3772,7 @@
         <v>32</v>
       </c>
       <c r="B328" t="n">
-        <v>205.0</v>
+        <v>252.0</v>
       </c>
       <c r="C328" t="n">
         <v>2023.0</v>
@@ -3783,7 +3783,7 @@
         <v>32</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0</v>
+        <v>242.0</v>
       </c>
       <c r="C329" t="n">
         <v>2024.0</v>
@@ -3794,7 +3794,7 @@
         <v>32</v>
       </c>
       <c r="B330" t="n">
-        <v>171.0</v>
+        <v>258.0</v>
       </c>
       <c r="C330" t="n">
         <v>2014.0</v>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
       <c r="B331" t="n">
-        <v>169.0</v>
+        <v>256.0</v>
       </c>
       <c r="C331" t="n">
         <v>2015.0</v>
@@ -3904,7 +3904,7 @@
         <v>33</v>
       </c>
       <c r="B340" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="C340" t="n">
         <v>2024.0</v>
@@ -4014,7 +4014,7 @@
         <v>34</v>
       </c>
       <c r="B350" t="n">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
       <c r="C350" t="n">
         <v>2023.0</v>
@@ -4025,7 +4025,7 @@
         <v>34</v>
       </c>
       <c r="B351" t="n">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
       <c r="C351" t="n">
         <v>2024.0</v>
@@ -4135,7 +4135,7 @@
         <v>35</v>
       </c>
       <c r="B361" t="n">
-        <v>0.0</v>
+        <v>236.0</v>
       </c>
       <c r="C361" t="n">
         <v>2023.0</v>

--- a/lab3/table.xlsx
+++ b/lab3/table.xlsx
@@ -186,7 +186,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6812.0</v>
+        <v>6674.0</v>
       </c>
       <c r="C2" t="n">
         <v>2016.0</v>
@@ -197,7 +197,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6754.0</v>
+        <v>6616.0</v>
       </c>
       <c r="C3" t="n">
         <v>2017.0</v>
@@ -208,7 +208,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6792.0</v>
+        <v>6654.0</v>
       </c>
       <c r="C4" t="n">
         <v>2018.0</v>
@@ -219,7 +219,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6799.0</v>
+        <v>6662.0</v>
       </c>
       <c r="C5" t="n">
         <v>2019.0</v>
@@ -230,7 +230,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6643.0</v>
+        <v>6506.0</v>
       </c>
       <c r="C6" t="n">
         <v>2020.0</v>
@@ -241,7 +241,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6500.0</v>
+        <v>6362.0</v>
       </c>
       <c r="C7" t="n">
         <v>2021.0</v>
@@ -252,7 +252,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6427.0</v>
+        <v>6290.0</v>
       </c>
       <c r="C8" t="n">
         <v>2022.0</v>
@@ -263,7 +263,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>5901.0</v>
+        <v>5832.0</v>
       </c>
       <c r="C9" t="n">
         <v>2023.0</v>
@@ -285,7 +285,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6805.0</v>
+        <v>6598.0</v>
       </c>
       <c r="C11" t="n">
         <v>2014.0</v>
@@ -296,7 +296,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>6783.0</v>
+        <v>6576.0</v>
       </c>
       <c r="C12" t="n">
         <v>2015.0</v>
@@ -307,7 +307,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2399.0</v>
+        <v>2125.0</v>
       </c>
       <c r="C13" t="n">
         <v>2016.0</v>
@@ -318,7 +318,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>2444.0</v>
+        <v>2170.0</v>
       </c>
       <c r="C14" t="n">
         <v>2017.0</v>
@@ -329,7 +329,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2297.0</v>
+        <v>2155.0</v>
       </c>
       <c r="C15" t="n">
         <v>2018.0</v>
@@ -340,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>2231.0</v>
+        <v>2163.0</v>
       </c>
       <c r="C16" t="n">
         <v>2019.0</v>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>2378.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C22" t="n">
         <v>2014.0</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2541.0</v>
+        <v>2199.0</v>
       </c>
       <c r="C23" t="n">
         <v>2015.0</v>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>209.0</v>
+        <v>65.0</v>
       </c>
       <c r="C46" t="n">
         <v>2016.0</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>215.0</v>
+        <v>91.0</v>
       </c>
       <c r="C47" t="n">
         <v>2017.0</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>218.0</v>
+        <v>94.0</v>
       </c>
       <c r="C48" t="n">
         <v>2018.0</v>
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>206.0</v>
+        <v>82.0</v>
       </c>
       <c r="C49" t="n">
         <v>2019.0</v>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>221.0</v>
+        <v>97.0</v>
       </c>
       <c r="C50" t="n">
         <v>2020.0</v>
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>230.0</v>
+        <v>168.0</v>
       </c>
       <c r="C51" t="n">
         <v>2021.0</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>215.0</v>
+        <v>51.0</v>
       </c>
       <c r="C55" t="n">
         <v>2014.0</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>219.0</v>
+        <v>54.0</v>
       </c>
       <c r="C56" t="n">
         <v>2015.0</v>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>3420.0</v>
+        <v>2115.0</v>
       </c>
       <c r="C57" t="n">
         <v>2016.0</v>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="n">
-        <v>3407.0</v>
+        <v>2281.0</v>
       </c>
       <c r="C58" t="n">
         <v>2017.0</v>
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>3462.0</v>
+        <v>2825.0</v>
       </c>
       <c r="C59" t="n">
         <v>2018.0</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="n">
-        <v>3584.0</v>
+        <v>3098.0</v>
       </c>
       <c r="C60" t="n">
         <v>2019.0</v>
@@ -835,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>3522.0</v>
+        <v>3157.0</v>
       </c>
       <c r="C61" t="n">
         <v>2020.0</v>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="n">
-        <v>3709.0</v>
+        <v>3461.0</v>
       </c>
       <c r="C62" t="n">
         <v>2021.0</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>3645.0</v>
+        <v>3518.0</v>
       </c>
       <c r="C63" t="n">
         <v>2022.0</v>
@@ -868,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>3639.0</v>
+        <v>3575.0</v>
       </c>
       <c r="C64" t="n">
         <v>2023.0</v>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>3550.0</v>
+        <v>1521.0</v>
       </c>
       <c r="C66" t="n">
         <v>2014.0</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>3342.0</v>
+        <v>1763.0</v>
       </c>
       <c r="C67" t="n">
         <v>2015.0</v>
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="n">
-        <v>1999.0</v>
+        <v>1757.0</v>
       </c>
       <c r="C68" t="n">
         <v>2016.0</v>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>1919.0</v>
+        <v>1677.0</v>
       </c>
       <c r="C69" t="n">
         <v>2017.0</v>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>1739.0</v>
+        <v>1497.0</v>
       </c>
       <c r="C70" t="n">
         <v>2018.0</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>1787.0</v>
+        <v>1626.0</v>
       </c>
       <c r="C71" t="n">
         <v>2019.0</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>1803.0</v>
+        <v>1642.0</v>
       </c>
       <c r="C72" t="n">
         <v>2020.0</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="n">
-        <v>1907.0</v>
+        <v>1746.0</v>
       </c>
       <c r="C73" t="n">
         <v>2021.0</v>
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>1950.0</v>
+        <v>1869.0</v>
       </c>
       <c r="C74" t="n">
         <v>2022.0</v>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>2090.0</v>
+        <v>1711.0</v>
       </c>
       <c r="C77" t="n">
         <v>2014.0</v>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>2261.0</v>
+        <v>1938.0</v>
       </c>
       <c r="C78" t="n">
         <v>2015.0</v>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>149.0</v>
+        <v>121.0</v>
       </c>
       <c r="C112" t="n">
         <v>2016.0</v>
@@ -1407,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="n">
-        <v>151.0</v>
+        <v>124.0</v>
       </c>
       <c r="C113" t="n">
         <v>2017.0</v>
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="n">
-        <v>149.0</v>
+        <v>122.0</v>
       </c>
       <c r="C114" t="n">
         <v>2018.0</v>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="n">
-        <v>154.0</v>
+        <v>126.0</v>
       </c>
       <c r="C115" t="n">
         <v>2019.0</v>
@@ -1440,7 +1440,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="n">
-        <v>154.0</v>
+        <v>126.0</v>
       </c>
       <c r="C116" t="n">
         <v>2020.0</v>
@@ -1451,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>154.0</v>
+        <v>126.0</v>
       </c>
       <c r="C117" t="n">
         <v>2021.0</v>
@@ -1462,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="n">
-        <v>155.0</v>
+        <v>127.0</v>
       </c>
       <c r="C118" t="n">
         <v>2022.0</v>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="B121" t="n">
-        <v>155.0</v>
+        <v>127.0</v>
       </c>
       <c r="C121" t="n">
         <v>2014.0</v>
@@ -1506,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B122" t="n">
-        <v>152.0</v>
+        <v>124.0</v>
       </c>
       <c r="C122" t="n">
         <v>2015.0</v>
@@ -2606,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="B222" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C222" t="n">
         <v>2016.0</v>
@@ -2617,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="B223" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C223" t="n">
         <v>2017.0</v>
@@ -2628,7 +2628,7 @@
         <v>23</v>
       </c>
       <c r="B224" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C224" t="n">
         <v>2018.0</v>
@@ -2639,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="B225" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C225" t="n">
         <v>2019.0</v>
@@ -2650,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="B226" t="n">
-        <v>242.0</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="n">
         <v>2020.0</v>
@@ -2661,7 +2661,7 @@
         <v>23</v>
       </c>
       <c r="B227" t="n">
-        <v>242.0</v>
+        <v>81.0</v>
       </c>
       <c r="C227" t="n">
         <v>2021.0</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B228" t="n">
-        <v>147.0</v>
+        <v>66.0</v>
       </c>
       <c r="C228" t="n">
         <v>2022.0</v>
@@ -2683,7 +2683,7 @@
         <v>23</v>
       </c>
       <c r="B229" t="n">
-        <v>322.0</v>
+        <v>242.0</v>
       </c>
       <c r="C229" t="n">
         <v>2023.0</v>
@@ -2705,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="B231" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C231" t="n">
         <v>2014.0</v>
@@ -2716,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="B232" t="n">
-        <v>322.0</v>
+        <v>0.0</v>
       </c>
       <c r="C232" t="n">
         <v>2015.0</v>
@@ -2727,7 +2727,7 @@
         <v>24</v>
       </c>
       <c r="B233" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C233" t="n">
         <v>2016.0</v>
@@ -2738,7 +2738,7 @@
         <v>24</v>
       </c>
       <c r="B234" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C234" t="n">
         <v>2017.0</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B235" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="n">
         <v>2018.0</v>
@@ -2760,7 +2760,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C236" t="n">
         <v>2019.0</v>
@@ -2771,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B237" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="C237" t="n">
         <v>2020.0</v>
@@ -2782,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="B238" t="n">
-        <v>109.0</v>
+        <v>44.0</v>
       </c>
       <c r="C238" t="n">
         <v>2021.0</v>
@@ -2793,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="B239" t="n">
-        <v>99.0</v>
+        <v>35.0</v>
       </c>
       <c r="C239" t="n">
         <v>2022.0</v>
@@ -2826,7 +2826,7 @@
         <v>24</v>
       </c>
       <c r="B242" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C242" t="n">
         <v>2014.0</v>
@@ -2837,7 +2837,7 @@
         <v>24</v>
       </c>
       <c r="B243" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
       <c r="C243" t="n">
         <v>2015.0</v>
@@ -3090,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="B266" t="n">
-        <v>1977.0</v>
+        <v>1517.0</v>
       </c>
       <c r="C266" t="n">
         <v>2016.0</v>
@@ -3101,7 +3101,7 @@
         <v>27</v>
       </c>
       <c r="B267" t="n">
-        <v>1968.0</v>
+        <v>1508.0</v>
       </c>
       <c r="C267" t="n">
         <v>2017.0</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B268" t="n">
-        <v>1996.0</v>
+        <v>1536.0</v>
       </c>
       <c r="C268" t="n">
         <v>2018.0</v>
@@ -3123,7 +3123,7 @@
         <v>27</v>
       </c>
       <c r="B269" t="n">
-        <v>2146.0</v>
+        <v>1686.0</v>
       </c>
       <c r="C269" t="n">
         <v>2019.0</v>
@@ -3134,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="B270" t="n">
-        <v>2143.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C270" t="n">
         <v>2020.0</v>
@@ -3145,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="B271" t="n">
-        <v>2084.0</v>
+        <v>1854.0</v>
       </c>
       <c r="C271" t="n">
         <v>2021.0</v>
@@ -3156,7 +3156,7 @@
         <v>27</v>
       </c>
       <c r="B272" t="n">
-        <v>2044.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C272" t="n">
         <v>2022.0</v>
@@ -3167,7 +3167,7 @@
         <v>27</v>
       </c>
       <c r="B273" t="n">
-        <v>2325.0</v>
+        <v>2094.0</v>
       </c>
       <c r="C273" t="n">
         <v>2023.0</v>
@@ -3189,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="B275" t="n">
-        <v>2096.0</v>
+        <v>1575.0</v>
       </c>
       <c r="C275" t="n">
         <v>2014.0</v>
@@ -3200,7 +3200,7 @@
         <v>27</v>
       </c>
       <c r="B276" t="n">
-        <v>2216.0</v>
+        <v>1695.0</v>
       </c>
       <c r="C276" t="n">
         <v>2015.0</v>
@@ -3695,7 +3695,7 @@
         <v>32</v>
       </c>
       <c r="B321" t="n">
-        <v>255.0</v>
+        <v>168.0</v>
       </c>
       <c r="C321" t="n">
         <v>2016.0</v>
@@ -3706,7 +3706,7 @@
         <v>32</v>
       </c>
       <c r="B322" t="n">
-        <v>250.0</v>
+        <v>163.0</v>
       </c>
       <c r="C322" t="n">
         <v>2017.0</v>
@@ -3717,7 +3717,7 @@
         <v>32</v>
       </c>
       <c r="B323" t="n">
-        <v>251.0</v>
+        <v>164.0</v>
       </c>
       <c r="C323" t="n">
         <v>2018.0</v>
@@ -3728,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="B324" t="n">
-        <v>258.0</v>
+        <v>171.0</v>
       </c>
       <c r="C324" t="n">
         <v>2019.0</v>
@@ -3739,7 +3739,7 @@
         <v>32</v>
       </c>
       <c r="B325" t="n">
-        <v>253.0</v>
+        <v>166.0</v>
       </c>
       <c r="C325" t="n">
         <v>2020.0</v>
@@ -3750,7 +3750,7 @@
         <v>32</v>
       </c>
       <c r="B326" t="n">
-        <v>256.0</v>
+        <v>169.0</v>
       </c>
       <c r="C326" t="n">
         <v>2021.0</v>
@@ -3794,7 +3794,7 @@
         <v>32</v>
       </c>
       <c r="B330" t="n">
-        <v>258.0</v>
+        <v>171.0</v>
       </c>
       <c r="C330" t="n">
         <v>2014.0</v>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
       <c r="B331" t="n">
-        <v>256.0</v>
+        <v>169.0</v>
       </c>
       <c r="C331" t="n">
         <v>2015.0</v>

--- a/lab3/table.xlsx
+++ b/lab3/table.xlsx
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="n">
-        <v>103.0</v>
+        <v>133.0</v>
       </c>
       <c r="C198" t="n">
         <v>2014.0</v>
@@ -2353,7 +2353,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="n">
-        <v>140.0</v>
+        <v>170.0</v>
       </c>
       <c r="C199" t="n">
         <v>2015.0</v>
